--- a/script/result_llm_tranform/px4_docs/px4_orbit/result.xlsx
+++ b/script/result_llm_tranform/px4_docs/px4_orbit/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15540"/>
+    <workbookView windowHeight="17260"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="164">
   <si>
     <t>index</t>
   </si>
@@ -74,6 +74,12 @@
     <t>O represents Orbit mode, C represents circular flight, and Y represents yawing towards the center. This formula states that globally, when in Orbit mode, the vehicle will fly in a circle and yaw towards the center.</t>
   </si>
   <si>
+    <t>{'sentence': '5.This mode is currently only supported on multicopter (or VTOL in MC mode).', 'formula': 'G(V → (M ∨ (V ∧ M)))', 'explanation': 'Here, M represents the multicopter mode, and V represents the VTOL mode. The formula states that globally, if the mode is enabled, then either the multicopter mode or both VTOL and multicopter modes must be enabled.'}</t>
+  </si>
+  <si>
+    <t>{'sentence': '5.This mode is currently only supported on multicopter (or VTOL in MC mode).', 'formula': 'G(M → (C ∨ V))', 'explanation': 'M represents the mode being active, C represents multicopter configuration, and V represents VTOL in MC mode. The formula states that globally, when the mode is active, it implies either a multicopter configuration or VTOL in MC mode. This captures the limited support for specific vehicle types.'}</t>
+  </si>
+  <si>
     <t>state transition pre-requirement</t>
   </si>
   <si>
@@ -513,12 +519,6 @@
   </si>
   <si>
     <t>{'sentence': '1.MAV_CMD_DO_ORBIT - Start an orbit with specified center point, radius, direction, altitude, speed and yaw direction (vehicle defaults to facing centre of orbit).', 'formula': 'F(O ∧ C ∧ R ∧ D ∧ A ∧ S ∧ Y)', 'explanation': 'O represents the start of the orbit command. C, R, D, A, S, and Y represent center point, radius, direction, altitude, speed, and yaw direction respectively. The formula captures that eventually, all these parameters are set for the orbit.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': '5.This mode is currently only supported on multicopter (or VTOL in MC mode).', 'formula': 'G(V → (M ∨ (V ∧ M)))', 'explanation': 'Here, M represents the multicopter mode, and V represents the VTOL mode. The formula states that globally, if the mode is enabled, then either the multicopter mode or both VTOL and multicopter modes must be enabled.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': '5.This mode is currently only supported on multicopter (or VTOL in MC mode).', 'formula': 'G(M → (C ∨ V))', 'explanation': 'M represents the mode being active, C represents multicopter configuration, and V represents VTOL in MC mode. The formula states that globally, when the mode is active, it implies either a multicopter configuration or VTOL in MC mode. This captures the limited support for specific vehicle types.'}</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,13 +548,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1038,155 +1031,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1539,13 +1535,21 @@
   <sheetPr/>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" topLeftCell="D30" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="4" max="4" width="27.3269230769231" customWidth="1"/>
+    <col min="5" max="5" width="11.7788461538462" customWidth="1"/>
+    <col min="6" max="6" width="26.5480769230769" customWidth="1"/>
+    <col min="7" max="7" width="31.4134615384615" customWidth="1"/>
+    <col min="9" max="9" width="26.5480769230769" customWidth="1"/>
+    <col min="11" max="11" width="35.9807692307692" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" ht="17" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1583,1213 +1587,1208 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" ht="202" spans="1:12">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="185" spans="1:12">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="185" spans="1:12">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="152" spans="1:12">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="168" spans="1:12">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="185" spans="1:12">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="202" spans="1:12">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="185" spans="1:12">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" ht="168" spans="1:12">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" ht="320" spans="1:12">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="320" spans="1:12">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="185" spans="1:12">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" ht="219" spans="1:12">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="185" spans="1:12">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" ht="185" spans="1:12">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" ht="84" spans="1:12">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" ht="152" spans="1:12">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" ht="51" spans="1:12">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" ht="236" spans="1:12">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" ht="152" spans="1:12">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="L3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" ht="219" spans="1:12">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="185" spans="1:12">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" ht="152" spans="1:12">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" ht="135" spans="1:12">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="101" spans="1:12">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="185" spans="1:12">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="185" spans="1:12">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="353" spans="1:12">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="336" spans="1:12">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" ht="17" spans="1:12">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="2">
+        <f>COUNTIF(H2:H30,1)</f>
+        <v>10</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2">
+        <f>COUNTIF(J2:J30,1)</f>
+        <v>10</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2">
+        <f>COUNTIF(L2:L30,1)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" ht="17" spans="1:12">
+      <c r="A32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="2">
+        <f>COUNTIF(H2:H30,0)</f>
+        <v>4</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2">
+        <f>COUNTIF(J2:J30,0)</f>
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" t="s">
-        <v>7</v>
-      </c>
-      <c r="L21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" t="s">
-        <v>117</v>
-      </c>
-      <c r="J22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" t="s">
-        <v>118</v>
-      </c>
-      <c r="L22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" t="s">
-        <v>130</v>
-      </c>
-      <c r="H25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" t="s">
-        <v>131</v>
-      </c>
-      <c r="L25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" t="s">
-        <v>136</v>
-      </c>
-      <c r="L26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" t="s">
-        <v>140</v>
-      </c>
-      <c r="G27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" t="s">
-        <v>141</v>
-      </c>
-      <c r="J27" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" t="s">
-        <v>142</v>
-      </c>
-      <c r="L27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F28" t="s">
-        <v>146</v>
-      </c>
-      <c r="G28" t="s">
-        <v>147</v>
-      </c>
-      <c r="H28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" t="s">
-        <v>148</v>
-      </c>
-      <c r="L28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" t="s">
-        <v>150</v>
-      </c>
-      <c r="E29" t="s">
-        <v>151</v>
-      </c>
-      <c r="F29" t="s">
-        <v>152</v>
-      </c>
-      <c r="G29" t="s">
-        <v>153</v>
-      </c>
-      <c r="H29" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" t="s">
-        <v>154</v>
-      </c>
-      <c r="J29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" t="s">
-        <v>155</v>
-      </c>
-      <c r="L29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" t="s">
-        <v>158</v>
-      </c>
-      <c r="F30" t="s">
-        <v>159</v>
-      </c>
-      <c r="G30" t="s">
-        <v>160</v>
-      </c>
-      <c r="H30" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" t="s">
-        <v>161</v>
-      </c>
-      <c r="J30" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" t="s">
-        <v>7</v>
-      </c>
-      <c r="L30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" t="s">
-        <v>7</v>
-      </c>
-      <c r="J32" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" t="s">
-        <v>7</v>
-      </c>
-      <c r="L32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" t="s">
-        <v>7</v>
-      </c>
-      <c r="L33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" t="s">
-        <v>162</v>
-      </c>
-      <c r="H34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" t="s">
-        <v>7</v>
-      </c>
-      <c r="J34" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" t="s">
-        <v>163</v>
-      </c>
-      <c r="L34" t="s">
+      <c r="K32" s="2"/>
+      <c r="L32" s="2">
+        <f>COUNTIF(L2:L30,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" ht="17" spans="1:12">
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" ht="17" spans="1:12">
+      <c r="A34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>7</v>
       </c>
     </row>
